--- a/results/averages.xlsx
+++ b/results/averages.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\DNSSecExt\results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\DNSSecExt\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40576623-0677-4B0E-AC1A-D53B65EFAD2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80CAB20F-8FD6-4C8A-BCAA-0BBA9711F98E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="18">
   <si>
     <t>DNS Server</t>
   </si>
@@ -77,6 +77,9 @@
   </si>
   <si>
     <t>~9501 hits</t>
+  </si>
+  <si>
+    <t>~9483 hits</t>
   </si>
 </sst>
 </file>
@@ -296,7 +299,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -312,12 +315,47 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -327,43 +365,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -650,7 +651,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P7" sqref="P7"/>
+      <selection pane="bottomRight" activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -665,7 +666,7 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="15" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="10" t="s">
@@ -677,10 +678,10 @@
       <c r="G1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="31" t="s">
+      <c r="H1" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="15" t="s">
         <v>3</v>
       </c>
       <c r="J1" s="10" t="s">
@@ -700,40 +701,40 @@
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="20" t="s">
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="30"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="27"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D3" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="11" t="s">
+      <c r="D3" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
         <v>12</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="J3" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="K3" s="11" t="s">
+      <c r="I3" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" t="s">
         <v>12</v>
       </c>
       <c r="L3" s="6" t="s">
@@ -741,14 +742,14 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="28" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="8"/>
-      <c r="D4" s="14">
+      <c r="D4" s="13">
         <v>9.8000000000000004E-2</v>
       </c>
       <c r="E4" s="8">
@@ -763,7 +764,7 @@
       <c r="H4" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="14">
+      <c r="I4" s="13">
         <v>9.1999999999999998E-2</v>
       </c>
       <c r="J4" s="8">
@@ -777,18 +778,17 @@
       </c>
     </row>
     <row r="5" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="13">
+      <c r="B5" s="29"/>
+      <c r="D5" s="12">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5">
         <v>0.89</v>
       </c>
       <c r="G5" s="6">
@@ -797,13 +797,13 @@
       <c r="H5" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="13">
+      <c r="I5" s="12">
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="J5" s="32">
+      <c r="J5">
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="K5" s="32">
+      <c r="K5">
         <v>8.7999999999999995E-2</v>
       </c>
       <c r="L5" s="6">
@@ -811,79 +811,71 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="19"/>
+      <c r="B6" s="30"/>
       <c r="C6" s="3"/>
-      <c r="D6" s="12"/>
+      <c r="D6" s="11"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
-      <c r="G6" s="15"/>
-      <c r="I6" s="12"/>
+      <c r="G6" s="14"/>
+      <c r="I6" s="11"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
-      <c r="L6" s="15"/>
+      <c r="L6" s="14"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="25"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
+      <c r="A7" s="19"/>
+      <c r="D7" s="12"/>
       <c r="G7" s="6"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
+      <c r="I7" s="12"/>
       <c r="L7" s="6"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="25"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
+      <c r="A8" s="19"/>
+      <c r="D8" s="12"/>
       <c r="G8" s="6"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
+      <c r="I8" s="12"/>
       <c r="L8" s="6"/>
     </row>
     <row r="9" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="25"/>
-      <c r="D9" s="21" t="s">
+      <c r="A9" s="19"/>
+      <c r="D9" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="21" t="s">
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="27"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="24"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="25"/>
-      <c r="D10" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="11" t="s">
+      <c r="A10" s="19"/>
+      <c r="D10" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I10" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="J10" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="K10" s="11" t="s">
+      <c r="I10" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J10" t="s">
+        <v>12</v>
+      </c>
+      <c r="K10" t="s">
         <v>12</v>
       </c>
       <c r="L10" s="6" t="s">
@@ -891,51 +883,55 @@
       </c>
     </row>
     <row r="11" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="28" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="8"/>
-      <c r="D11" s="14"/>
+      <c r="D11" s="13">
+        <v>0.14099999999999999</v>
+      </c>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
-      <c r="G11" s="7"/>
-      <c r="I11" s="14"/>
+      <c r="G11" s="7">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="H11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" s="13">
+        <v>0.106</v>
+      </c>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
       <c r="L11" s="7"/>
     </row>
     <row r="12" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="23" t="s">
+      <c r="A12" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
+      <c r="B12" s="29"/>
+      <c r="D12" s="12"/>
       <c r="G12" s="6"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
+      <c r="I12" s="12"/>
       <c r="L12" s="6"/>
     </row>
     <row r="13" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="24" t="s">
+      <c r="A13" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="19"/>
+      <c r="B13" s="30"/>
       <c r="C13" s="3"/>
-      <c r="D13" s="12"/>
+      <c r="D13" s="11"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
-      <c r="G13" s="15"/>
-      <c r="I13" s="12"/>
+      <c r="G13" s="14"/>
+      <c r="I13" s="11"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
-      <c r="L13" s="15"/>
+      <c r="L13" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/results/averages.xlsx
+++ b/results/averages.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\DNSSecExt\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80CAB20F-8FD6-4C8A-BCAA-0BBA9711F98E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{199A2AEC-F905-4DC5-8319-67C283692D91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="18">
   <si>
     <t>DNS Server</t>
   </si>
@@ -299,7 +299,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -365,6 +365,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -645,13 +649,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F20" sqref="F20"/>
+      <selection pane="bottomRight" activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -894,51 +898,48 @@
         <v>0.14099999999999999</v>
       </c>
       <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
+      <c r="F11" s="8">
+        <v>0.104</v>
+      </c>
       <c r="G11" s="7">
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" s="32" t="s">
         <v>17</v>
       </c>
       <c r="I11" s="13">
         <v>0.106</v>
       </c>
       <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="7"/>
+      <c r="K11" s="8">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="L11" s="7">
+        <v>0.109</v>
+      </c>
     </row>
     <row r="12" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="29"/>
-      <c r="D12" s="12"/>
-      <c r="G12" s="6"/>
-      <c r="I12" s="12"/>
-      <c r="L12" s="6"/>
-    </row>
-    <row r="13" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="30"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="14"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="14"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="I9:L9"/>
     <mergeCell ref="I2:L2"/>
     <mergeCell ref="B4:B6"/>
-    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B11:B12"/>
     <mergeCell ref="D2:G2"/>
     <mergeCell ref="D9:G9"/>
   </mergeCells>

--- a/results/averages.xlsx
+++ b/results/averages.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\DNSSecExt\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{199A2AEC-F905-4DC5-8319-67C283692D91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{224E9AAF-A3FA-4AE7-90A1-15B8ABAF7A35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="17">
   <si>
     <t>DNS Server</t>
   </si>
@@ -69,17 +69,14 @@
     <t>average RTT time of query</t>
   </si>
   <si>
-    <t>Second Run
+    <t>~9501 hits</t>
+  </si>
+  <si>
+    <t>Cached Run
 -&gt;</t>
   </si>
   <si>
-    <t>~9489 hits</t>
-  </si>
-  <si>
-    <t>~9501 hits</t>
-  </si>
-  <si>
-    <t>~9483 hits</t>
+    <t>~ 9488 hits</t>
   </si>
 </sst>
 </file>
@@ -299,7 +296,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -338,6 +335,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -365,10 +365,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -655,7 +651,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K12" sqref="K12"/>
+      <selection pane="bottomRight" activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -683,7 +679,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I1" s="15" t="s">
         <v>3</v>
@@ -705,19 +701,19 @@
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="28"/>
       <c r="H2" s="20"/>
-      <c r="I2" s="25" t="s">
+      <c r="I2" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="28"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D3" s="12" t="s">
@@ -749,76 +745,34 @@
       <c r="A4" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="29" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="8"/>
-      <c r="D4" s="13">
-        <v>9.8000000000000004E-2</v>
-      </c>
-      <c r="E4" s="8">
-        <v>9.2999999999999999E-2</v>
-      </c>
-      <c r="F4" s="8">
-        <v>0.09</v>
-      </c>
-      <c r="G4" s="7">
-        <v>8.5999999999999993E-2</v>
-      </c>
-      <c r="H4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="13">
-        <v>9.1999999999999998E-2</v>
-      </c>
-      <c r="J4" s="8">
-        <v>8.7999999999999995E-2</v>
-      </c>
-      <c r="K4" s="8">
-        <v>8.7999999999999995E-2</v>
-      </c>
-      <c r="L4" s="7">
-        <v>8.6999999999999994E-2</v>
-      </c>
+      <c r="D4" s="13"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="7"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="7"/>
     </row>
     <row r="5" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="29"/>
-      <c r="D5" s="12">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="E5">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="F5">
-        <v>0.89</v>
-      </c>
-      <c r="G5" s="6">
-        <v>7.8E-2</v>
-      </c>
-      <c r="H5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5" s="12">
-        <v>6.7000000000000004E-2</v>
-      </c>
-      <c r="J5">
-        <v>6.6000000000000003E-2</v>
-      </c>
-      <c r="K5">
-        <v>8.7999999999999995E-2</v>
-      </c>
-      <c r="L5" s="6">
-        <v>7.0000000000000007E-2</v>
-      </c>
+      <c r="B5" s="30"/>
+      <c r="D5" s="12"/>
+      <c r="G5" s="6"/>
+      <c r="I5" s="12"/>
+      <c r="L5" s="6"/>
     </row>
     <row r="6" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="30"/>
+      <c r="B6" s="31"/>
       <c r="C6" s="3"/>
       <c r="D6" s="11"/>
       <c r="E6" s="3"/>
@@ -845,19 +799,19 @@
     </row>
     <row r="9" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="19"/>
-      <c r="D9" s="22" t="s">
+      <c r="D9" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="25"/>
       <c r="H9" s="20"/>
-      <c r="I9" s="22" t="s">
+      <c r="I9" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="J9" s="23"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="24"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="25"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="19"/>
@@ -890,47 +844,45 @@
       <c r="A11" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="29" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="8"/>
-      <c r="D11" s="13">
-        <v>0.14099999999999999</v>
-      </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8">
-        <v>0.104</v>
-      </c>
-      <c r="G11" s="7">
-        <v>9.6000000000000002E-2</v>
-      </c>
-      <c r="H11" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="I11" s="13">
-        <v>0.106</v>
-      </c>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8">
-        <v>0.10199999999999999</v>
-      </c>
-      <c r="L11" s="7">
-        <v>0.109</v>
-      </c>
+      <c r="D11" s="13"/>
+      <c r="E11" s="8">
+        <v>0.111</v>
+      </c>
+      <c r="F11" s="8"/>
+      <c r="G11" s="7"/>
+      <c r="H11" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" s="13"/>
+      <c r="J11" s="8">
+        <v>0.108</v>
+      </c>
+      <c r="K11" s="8"/>
+      <c r="L11" s="7"/>
     </row>
     <row r="12" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="31" t="s">
+      <c r="A12" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="30"/>
+      <c r="B12" s="31"/>
       <c r="C12" s="3"/>
       <c r="D12" s="11"/>
-      <c r="E12" s="3"/>
+      <c r="E12" s="3">
+        <v>7.4999999999999997E-2</v>
+      </c>
       <c r="F12" s="3"/>
       <c r="G12" s="14"/>
-      <c r="H12" s="32"/>
+      <c r="H12" t="s">
+        <v>14</v>
+      </c>
       <c r="I12" s="11"/>
-      <c r="J12" s="3"/>
+      <c r="J12" s="3">
+        <v>7.3999999999999996E-2</v>
+      </c>
       <c r="K12" s="3"/>
       <c r="L12" s="14"/>
     </row>

--- a/results/averages.xlsx
+++ b/results/averages.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\DNSSecExt\results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\DNSSecExt\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{224E9AAF-A3FA-4AE7-90A1-15B8ABAF7A35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE7EEB17-1DF3-498B-90FC-14E607282A29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="19">
   <si>
     <t>DNS Server</t>
   </si>
@@ -77,6 +77,12 @@
   </si>
   <si>
     <t>~ 9488 hits</t>
+  </si>
+  <si>
+    <t>~9498 hits</t>
+  </si>
+  <si>
+    <t>~9478 hits</t>
   </si>
 </sst>
 </file>
@@ -651,7 +657,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H13" sqref="H13"/>
+      <selection pane="bottomRight" activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -749,11 +755,18 @@
         <v>10</v>
       </c>
       <c r="C4" s="8"/>
-      <c r="D4" s="13"/>
+      <c r="D4" s="13">
+        <v>0.1</v>
+      </c>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
       <c r="G4" s="7"/>
-      <c r="I4" s="13"/>
+      <c r="H4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="13">
+        <v>9.4E-2</v>
+      </c>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
       <c r="L4" s="7"/>
@@ -763,9 +776,16 @@
         <v>7</v>
       </c>
       <c r="B5" s="30"/>
-      <c r="D5" s="12"/>
+      <c r="D5" s="12">
+        <v>7.2999999999999995E-2</v>
+      </c>
       <c r="G5" s="6"/>
-      <c r="I5" s="12"/>
+      <c r="H5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="12">
+        <v>7.0999999999999994E-2</v>
+      </c>
       <c r="L5" s="6"/>
     </row>
     <row r="6" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">

--- a/results/averages.xlsx
+++ b/results/averages.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\DNSSecExt\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE7EEB17-1DF3-498B-90FC-14E607282A29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5354B037-3740-4415-AE98-C90A28157886}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -82,7 +82,7 @@
     <t>~9498 hits</t>
   </si>
   <si>
-    <t>~9478 hits</t>
+    <t>~9489 hits</t>
   </si>
 </sst>
 </file>
@@ -657,7 +657,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J8" sqref="J8"/>
+      <selection pane="bottomRight" activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -758,7 +758,9 @@
       <c r="D4" s="13">
         <v>0.1</v>
       </c>
-      <c r="E4" s="8"/>
+      <c r="E4" s="8">
+        <v>9.1999999999999998E-2</v>
+      </c>
       <c r="F4" s="8"/>
       <c r="G4" s="7"/>
       <c r="H4" t="s">
@@ -767,7 +769,9 @@
       <c r="I4" s="13">
         <v>9.4E-2</v>
       </c>
-      <c r="J4" s="8"/>
+      <c r="J4" s="8">
+        <v>8.7999999999999995E-2</v>
+      </c>
       <c r="K4" s="8"/>
       <c r="L4" s="7"/>
     </row>
@@ -779,12 +783,18 @@
       <c r="D5" s="12">
         <v>7.2999999999999995E-2</v>
       </c>
+      <c r="E5">
+        <v>7.2999999999999995E-2</v>
+      </c>
       <c r="G5" s="6"/>
       <c r="H5" t="s">
         <v>17</v>
       </c>
       <c r="I5" s="12">
         <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="J5">
+        <v>6.9000000000000006E-2</v>
       </c>
       <c r="L5" s="6"/>
     </row>

--- a/results/averages.xlsx
+++ b/results/averages.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\DNSSecExt\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5354B037-3740-4415-AE98-C90A28157886}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7D6DEE2-047A-45CF-A0AC-D4B4E7913F62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -657,7 +657,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I11" sqref="I11"/>
+      <selection pane="bottomRight" activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -761,7 +761,9 @@
       <c r="E4" s="8">
         <v>9.1999999999999998E-2</v>
       </c>
-      <c r="F4" s="8"/>
+      <c r="F4" s="8">
+        <v>9.9000000000000005E-2</v>
+      </c>
       <c r="G4" s="7"/>
       <c r="H4" t="s">
         <v>18</v>
@@ -772,7 +774,9 @@
       <c r="J4" s="8">
         <v>8.7999999999999995E-2</v>
       </c>
-      <c r="K4" s="8"/>
+      <c r="K4" s="8">
+        <v>9.6000000000000002E-2</v>
+      </c>
       <c r="L4" s="7"/>
     </row>
     <row r="5" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -786,6 +790,9 @@
       <c r="E5">
         <v>7.2999999999999995E-2</v>
       </c>
+      <c r="F5">
+        <v>0.9</v>
+      </c>
       <c r="G5" s="6"/>
       <c r="H5" t="s">
         <v>17</v>
@@ -795,6 +802,9 @@
       </c>
       <c r="J5">
         <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="K5">
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="L5" s="6"/>
     </row>

--- a/results/averages.xlsx
+++ b/results/averages.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\DNSSecExt\results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\DNSSecExt\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7D6DEE2-047A-45CF-A0AC-D4B4E7913F62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53EE271D-6EBF-481A-91CC-6D873E8CCAB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -657,7 +657,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L5" sqref="L5"/>
+      <selection pane="bottomRight" activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -888,7 +888,9 @@
         <v>11</v>
       </c>
       <c r="C11" s="8"/>
-      <c r="D11" s="13"/>
+      <c r="D11" s="13">
+        <v>0.104</v>
+      </c>
       <c r="E11" s="8">
         <v>0.111</v>
       </c>
@@ -897,7 +899,9 @@
       <c r="H11" t="s">
         <v>16</v>
       </c>
-      <c r="I11" s="13"/>
+      <c r="I11" s="13">
+        <v>0.10299999999999999</v>
+      </c>
       <c r="J11" s="8">
         <v>0.108</v>
       </c>
@@ -910,7 +914,9 @@
       </c>
       <c r="B12" s="31"/>
       <c r="C12" s="3"/>
-      <c r="D12" s="11"/>
+      <c r="D12" s="11">
+        <v>7.0999999999999994E-2</v>
+      </c>
       <c r="E12" s="3">
         <v>7.4999999999999997E-2</v>
       </c>
@@ -919,7 +925,9 @@
       <c r="H12" t="s">
         <v>14</v>
       </c>
-      <c r="I12" s="11"/>
+      <c r="I12" s="11">
+        <v>6.7000000000000004E-2</v>
+      </c>
       <c r="J12" s="3">
         <v>7.3999999999999996E-2</v>
       </c>

--- a/results/averages.xlsx
+++ b/results/averages.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\DNSSecExt\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53EE271D-6EBF-481A-91CC-6D873E8CCAB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{165269EB-6601-4AFD-AE47-EC2D2CB42D04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -657,7 +657,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I13" sqref="I13"/>
+      <selection pane="bottomRight" activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -894,7 +894,9 @@
       <c r="E11" s="8">
         <v>0.111</v>
       </c>
-      <c r="F11" s="8"/>
+      <c r="F11" s="8">
+        <v>0.112</v>
+      </c>
       <c r="G11" s="7"/>
       <c r="H11" t="s">
         <v>16</v>
@@ -905,7 +907,9 @@
       <c r="J11" s="8">
         <v>0.108</v>
       </c>
-      <c r="K11" s="8"/>
+      <c r="K11" s="8">
+        <v>0.107</v>
+      </c>
       <c r="L11" s="7"/>
     </row>
     <row r="12" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -920,7 +924,9 @@
       <c r="E12" s="3">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="F12" s="3"/>
+      <c r="F12" s="3">
+        <v>8.4000000000000005E-2</v>
+      </c>
       <c r="G12" s="14"/>
       <c r="H12" t="s">
         <v>14</v>
@@ -931,7 +937,9 @@
       <c r="J12" s="3">
         <v>7.3999999999999996E-2</v>
       </c>
-      <c r="K12" s="3"/>
+      <c r="K12" s="3">
+        <v>8.4000000000000005E-2</v>
+      </c>
       <c r="L12" s="14"/>
     </row>
   </sheetData>

--- a/results/averages.xlsx
+++ b/results/averages.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\DNSSecExt\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{165269EB-6601-4AFD-AE47-EC2D2CB42D04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DF33910-6AA0-48B6-8845-369685FFD79C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -654,10 +654,10 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F17" sqref="F17"/>
+      <selection pane="bottomRight" activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -791,7 +791,7 @@
         <v>7.2999999999999995E-2</v>
       </c>
       <c r="F5">
-        <v>0.9</v>
+        <v>0.09</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" t="s">
@@ -897,7 +897,9 @@
       <c r="F11" s="8">
         <v>0.112</v>
       </c>
-      <c r="G11" s="7"/>
+      <c r="G11" s="7">
+        <v>0.105</v>
+      </c>
       <c r="H11" t="s">
         <v>16</v>
       </c>
@@ -910,7 +912,9 @@
       <c r="K11" s="8">
         <v>0.107</v>
       </c>
-      <c r="L11" s="7"/>
+      <c r="L11" s="7">
+        <v>0.10100000000000001</v>
+      </c>
     </row>
     <row r="12" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
@@ -927,7 +931,9 @@
       <c r="F12" s="3">
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="G12" s="14"/>
+      <c r="G12" s="14">
+        <v>7.0999999999999994E-2</v>
+      </c>
       <c r="H12" t="s">
         <v>14</v>
       </c>
@@ -940,7 +946,9 @@
       <c r="K12" s="3">
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="L12" s="14"/>
+      <c r="L12" s="14">
+        <v>6.8000000000000005E-2</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/results/averages.xlsx
+++ b/results/averages.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\DNSSecExt\results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\DNSSecExt\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DF33910-6AA0-48B6-8845-369685FFD79C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C72DC128-D24F-4852-8E25-C3EB25F16F0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -657,7 +657,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L13" sqref="L13"/>
+      <selection pane="bottomRight" activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -764,7 +764,9 @@
       <c r="F4" s="8">
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="G4" s="7"/>
+      <c r="G4" s="7">
+        <v>9.8000000000000004E-2</v>
+      </c>
       <c r="H4" t="s">
         <v>18</v>
       </c>
@@ -777,7 +779,9 @@
       <c r="K4" s="8">
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="L4" s="7"/>
+      <c r="L4" s="7">
+        <v>9.1999999999999998E-2</v>
+      </c>
     </row>
     <row r="5" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
@@ -793,7 +797,9 @@
       <c r="F5">
         <v>0.09</v>
       </c>
-      <c r="G5" s="6"/>
+      <c r="G5" s="6">
+        <v>7.3999999999999996E-2</v>
+      </c>
       <c r="H5" t="s">
         <v>17</v>
       </c>
@@ -806,7 +812,9 @@
       <c r="K5">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="L5" s="6"/>
+      <c r="L5" s="6">
+        <v>7.0000000000000007E-2</v>
+      </c>
     </row>
     <row r="6" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">

--- a/results/averages.xlsx
+++ b/results/averages.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\DNSSecExt\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C72DC128-D24F-4852-8E25-C3EB25F16F0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7022D847-70EA-4D31-B836-80A28A68FCA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="20">
   <si>
     <t>DNS Server</t>
   </si>
@@ -61,9 +61,6 @@
   </si>
   <si>
     <t>WiFi Connection</t>
-  </si>
-  <si>
-    <t>[ms]</t>
   </si>
   <si>
     <t>average RTT time of query</t>
@@ -83,6 +80,12 @@
   </si>
   <si>
     <t>~9489 hits</t>
+  </si>
+  <si>
+    <t>10000 hits</t>
+  </si>
+  <si>
+    <t>[s]</t>
   </si>
 </sst>
 </file>
@@ -657,7 +660,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N12" sqref="N12"/>
+      <selection pane="bottomRight" activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -685,7 +688,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I1" s="15" t="s">
         <v>3</v>
@@ -708,14 +711,14 @@
         <v>2</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E2" s="27"/>
       <c r="F2" s="27"/>
       <c r="G2" s="28"/>
       <c r="H2" s="20"/>
       <c r="I2" s="26" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J2" s="27"/>
       <c r="K2" s="27"/>
@@ -723,28 +726,28 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D3" s="12" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="J3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="K3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -768,7 +771,7 @@
         <v>9.8000000000000004E-2</v>
       </c>
       <c r="H4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I4" s="13">
         <v>9.4E-2</v>
@@ -801,7 +804,7 @@
         <v>7.3999999999999996E-2</v>
       </c>
       <c r="H5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I5" s="12">
         <v>7.0999999999999994E-2</v>
@@ -822,14 +825,33 @@
       </c>
       <c r="B6" s="31"/>
       <c r="C6" s="3"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="14"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="14"/>
+      <c r="D6" s="11">
+        <v>1.14E-3</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1.1299999999999999E-3</v>
+      </c>
+      <c r="F6" s="3">
+        <v>1.41E-3</v>
+      </c>
+      <c r="G6" s="14">
+        <v>1.33E-3</v>
+      </c>
+      <c r="H6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="11">
+        <v>1.16E-3</v>
+      </c>
+      <c r="J6" s="3">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="K6" s="3">
+        <v>1.42E-3</v>
+      </c>
+      <c r="L6" s="14">
+        <v>1.31E-3</v>
+      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="19"/>
@@ -848,14 +870,14 @@
     <row r="9" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="19"/>
       <c r="D9" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E9" s="24"/>
       <c r="F9" s="24"/>
       <c r="G9" s="25"/>
       <c r="H9" s="20"/>
       <c r="I9" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J9" s="24"/>
       <c r="K9" s="24"/>
@@ -864,28 +886,28 @@
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="19"/>
       <c r="D10" s="12" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="J10" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="K10" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="L10" s="6" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -909,7 +931,7 @@
         <v>0.105</v>
       </c>
       <c r="H11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I11" s="13">
         <v>0.10299999999999999</v>
@@ -943,7 +965,7 @@
         <v>7.0999999999999994E-2</v>
       </c>
       <c r="H12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I12" s="11">
         <v>6.7000000000000004E-2</v>
